--- a/Mail Attachments/Config.xlsx
+++ b/Mail Attachments/Config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A6BB93-F736-45E8-BFD9-9E2F6828150E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDAC61F9-B3AD-4921-A6B9-CC4CD5192EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="22500" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -347,28 +347,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>44687</v>
+        <v>44686</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44727</v>
+        <v>44717</v>
       </c>
     </row>
   </sheetData>

--- a/Mail Attachments/Config.xlsx
+++ b/Mail Attachments/Config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDAC61F9-B3AD-4921-A6B9-CC4CD5192EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB549FE-7669-42FF-B4B7-B33AA1B4526B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="22500" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -360,7 +360,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>44686</v>
+        <v>44696</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -368,7 +368,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44717</v>
+        <v>44747</v>
       </c>
     </row>
   </sheetData>
